--- a/2022/Symphony/Others/Emergency Format/Retail MFS update.xlsx
+++ b/2022/Symphony/Others/Emergency Format/Retail MFS update.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Dealer Name</t>
   </si>
@@ -31,19 +31,16 @@
     <t>Dealer ID</t>
   </si>
   <si>
-    <t>DEL-0031</t>
-  </si>
-  <si>
-    <t>Hello Rajshahi</t>
-  </si>
-  <si>
-    <t>RET-27978</t>
-  </si>
-  <si>
     <t>bkash</t>
   </si>
   <si>
-    <t>RET-26836</t>
+    <t>Mugdho Corporation</t>
+  </si>
+  <si>
+    <t>RET-07856</t>
+  </si>
+  <si>
+    <t>DEL-0179</t>
   </si>
 </sst>
 </file>
@@ -439,7 +436,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="L11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +466,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -478,28 +475,18 @@
         <v>7</v>
       </c>
       <c r="D2" s="3">
-        <v>1911948170</v>
+        <v>1743942010</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1719865127</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>

--- a/2022/Symphony/Others/Emergency Format/Retail MFS update.xlsx
+++ b/2022/Symphony/Others/Emergency Format/Retail MFS update.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Dealer Name</t>
   </si>
@@ -41,6 +41,18 @@
   </si>
   <si>
     <t>DEL-0179</t>
+  </si>
+  <si>
+    <t>RET-07923</t>
+  </si>
+  <si>
+    <t>RET-18551</t>
+  </si>
+  <si>
+    <t>RET-12820</t>
+  </si>
+  <si>
+    <t>RET-34993</t>
   </si>
 </sst>
 </file>
@@ -112,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -121,9 +133,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,13 +445,13 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="L11:M11"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -471,7 +480,7 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3">
@@ -482,32 +491,72 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1773126127</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1614232353</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1849130131</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1762331366</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
